--- a/TapBand_SRC/Assets/Data/GameData.xlsx
+++ b/TapBand_SRC/Assets/Data/GameData.xlsx
@@ -15,7 +15,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -46,7 +46,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>FanGoal</t>
+    <t>TapGoal</t>
   </si>
   <si>
     <t>Duration</t>
@@ -260,6 +260,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -280,11 +284,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -577,7 +577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -656,7 +656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -876,7 +876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1102,7 +1102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1322,7 +1322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TapBand_SRC/Assets/Data/GameData.xlsx
+++ b/TapBand_SRC/Assets/Data/GameData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>TapMultiplier</t>
+  </si>
+  <si>
+    <t>FanRequirementToSkip</t>
   </si>
   <si>
     <t>EquipmentType</t>
@@ -662,6 +665,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="21.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -679,7 +685,9 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -717,6 +725,9 @@
       <c r="E2" s="3">
         <v>1.5</v>
       </c>
+      <c r="F2" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -733,6 +744,9 @@
       </c>
       <c r="E3" s="3">
         <v>1.6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="4">
@@ -751,6 +765,9 @@
       <c r="E4" s="3">
         <v>1.7</v>
       </c>
+      <c r="F4" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -768,6 +785,9 @@
       <c r="E5" s="3">
         <v>1.8</v>
       </c>
+      <c r="F5" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -785,6 +805,9 @@
       <c r="E6" s="3">
         <v>1.9</v>
       </c>
+      <c r="F6" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
@@ -802,6 +825,9 @@
       <c r="E7" s="3">
         <v>2.0</v>
       </c>
+      <c r="F7" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
@@ -819,6 +845,9 @@
       <c r="E8" s="3">
         <v>2.1</v>
       </c>
+      <c r="F8" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
@@ -836,6 +865,9 @@
       <c r="E9" s="3">
         <v>2.2</v>
       </c>
+      <c r="F9" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
@@ -853,6 +885,9 @@
       <c r="E10" s="3">
         <v>2.3</v>
       </c>
+      <c r="F10" s="3">
+        <v>10000.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
@@ -869,6 +904,9 @@
       </c>
       <c r="E11" s="3">
         <v>2.4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10000.0</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -900,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -931,13 +969,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>100.0</v>
@@ -951,13 +989,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>2.0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>150.0</v>
@@ -971,13 +1009,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3">
         <v>80.0</v>
@@ -991,13 +1029,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3">
         <v>120.0</v>
@@ -1011,13 +1049,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
         <v>1.0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3">
         <v>50.0</v>
@@ -1031,13 +1069,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>2.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3">
         <v>90.0</v>
@@ -1051,13 +1089,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3">
         <v>1.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3">
         <v>150.0</v>
@@ -1071,13 +1109,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>2.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3">
         <v>200.0</v>
@@ -1117,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -1157,7 +1195,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
@@ -1177,7 +1215,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3">
         <v>2.0</v>
@@ -1197,7 +1235,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
@@ -1217,7 +1255,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
@@ -1237,7 +1275,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>1.0</v>
@@ -1257,7 +1295,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3">
         <v>2.0</v>
@@ -1277,7 +1315,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
         <v>1.0</v>
@@ -1297,7 +1335,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
         <v>2.0</v>
@@ -1340,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1371,7 +1409,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3">
         <v>1524.0</v>
@@ -1382,7 +1420,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3">
         <v>2048.0</v>
@@ -1393,11 +1431,14 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
